--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,87 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -127,67 +130,73 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>right</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>right</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
@@ -196,16 +205,16 @@
     <t>documentary</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -569,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -709,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.92</v>
@@ -738,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -788,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7719298245614035</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8939393939393939</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,16 +968,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.7066666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1006,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7692307692307693</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,16 +1068,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.631578947368421</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>0.6111111111111112</v>
@@ -1138,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1156,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7368421052631579</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,16 +1218,16 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.5454545454545454</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.3541666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,38 +1297,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.65</v>
       </c>
       <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="L16">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <v>12</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6285714285714286</v>
+        <v>0.65</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.3220338983050847</v>
+        <v>0.375</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,16 +1418,16 @@
         <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.2540983606557377</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L18">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>819</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.2439024390243902</v>
+        <v>0.2531876138433515</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,38 +1497,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L20">
         <v>14</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>14</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1530,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5319148936170213</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1556,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.2037037037037037</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,16 +1618,16 @@
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>0.2</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5294117647058824</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.1851851851851852</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -1680,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,16 +1718,16 @@
         <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.1643835616438356</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1730,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4583333333333333</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1756,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.1549295774647887</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1780,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1797,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4358974358974359</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1806,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.1263157894736842</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1830,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1859,16 +1868,16 @@
         <v>65</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.05421686746987952</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1880,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>628</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1888,37 +1897,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05723905723905724</v>
+        <v>0.06418918918918919</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F28">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.0530035335689046</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1930,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>268</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.03713188220230474</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1956,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>752</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.03703703703703703</v>
+        <v>0.0530035335689046</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1982,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>520</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.03225806451612903</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2008,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>330</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.0275974025974026</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2034,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>599</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.02188940092165899</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2060,7 +2069,59 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1698</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34">
+        <v>0.02816901408450704</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35">
+        <v>0.02707373271889401</v>
+      </c>
+      <c r="L35">
+        <v>47</v>
+      </c>
+      <c r="M35">
+        <v>47</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1689</v>
       </c>
     </row>
   </sheetData>
